--- a/Code/Results/Cases/Case_0_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_129/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.607196754993383</v>
+        <v>4.926126621258732</v>
       </c>
       <c r="D2">
-        <v>3.362735541186373</v>
+        <v>3.338002904462885</v>
       </c>
       <c r="E2">
-        <v>31.62243353684075</v>
+        <v>16.66695836158539</v>
       </c>
       <c r="F2">
-        <v>39.85743707408909</v>
+        <v>27.18703899061369</v>
       </c>
       <c r="G2">
-        <v>1.958292765701823</v>
+        <v>3.567828460017615</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.29238138019193</v>
+        <v>23.19951237517529</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.049516854928446</v>
+        <v>4.750213261576099</v>
       </c>
       <c r="D3">
-        <v>3.139945308698339</v>
+        <v>3.332266480516632</v>
       </c>
       <c r="E3">
-        <v>29.16555642876378</v>
+        <v>15.70294774289622</v>
       </c>
       <c r="F3">
-        <v>36.89688011011582</v>
+        <v>26.31248136070441</v>
       </c>
       <c r="G3">
-        <v>1.971733351631291</v>
+        <v>3.572303459150941</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.87098972563072</v>
+        <v>22.57619591036849</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.691724455192341</v>
+        <v>4.640614124971141</v>
       </c>
       <c r="D4">
-        <v>3.000031024010213</v>
+        <v>3.329717909951419</v>
       </c>
       <c r="E4">
-        <v>27.60604818074538</v>
+        <v>15.08611945890479</v>
       </c>
       <c r="F4">
-        <v>35.00734135344994</v>
+        <v>25.77068349195109</v>
       </c>
       <c r="G4">
-        <v>1.98008863487331</v>
+        <v>3.575189172148516</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.32425087503879</v>
+        <v>22.19320626190192</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.541937058256473</v>
+        <v>4.595631543631719</v>
       </c>
       <c r="D5">
-        <v>2.942153528115999</v>
+        <v>3.328923112997732</v>
       </c>
       <c r="E5">
-        <v>26.95678357589028</v>
+        <v>14.82875600235974</v>
       </c>
       <c r="F5">
-        <v>34.21874364326658</v>
+        <v>25.54907308206905</v>
       </c>
       <c r="G5">
-        <v>1.983525356287105</v>
+        <v>3.576399996207762</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.67833068099538</v>
+        <v>22.0373268116054</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.516821111478584</v>
+        <v>4.588145329460033</v>
       </c>
       <c r="D6">
-        <v>2.932489062503872</v>
+        <v>3.328805825206065</v>
       </c>
       <c r="E6">
-        <v>26.84811800433368</v>
+        <v>14.78566738895243</v>
       </c>
       <c r="F6">
-        <v>34.08666054128888</v>
+        <v>25.51223691030425</v>
       </c>
       <c r="G6">
-        <v>1.984098109621509</v>
+        <v>3.576603163521204</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.57011948531181</v>
+        <v>22.01146251924012</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.689720649203744</v>
+        <v>4.64000866065126</v>
       </c>
       <c r="D7">
-        <v>2.999254044709736</v>
+        <v>3.329706205593732</v>
       </c>
       <c r="E7">
-        <v>27.59734880258203</v>
+        <v>15.08267247213794</v>
       </c>
       <c r="F7">
-        <v>34.996781988004</v>
+        <v>25.76769758027978</v>
       </c>
       <c r="G7">
-        <v>1.980134847168667</v>
+        <v>3.57520536033398</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.3156036131383</v>
+        <v>22.19110288947422</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.418024854835685</v>
+        <v>4.86584670503044</v>
       </c>
       <c r="D8">
-        <v>3.28651353612822</v>
+        <v>3.335822339363518</v>
       </c>
       <c r="E8">
-        <v>30.78527984737992</v>
+        <v>16.33988363937718</v>
       </c>
       <c r="F8">
-        <v>38.8511557186745</v>
+        <v>26.88671595412688</v>
       </c>
       <c r="G8">
-        <v>1.962909647646024</v>
+        <v>3.569342884976451</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.46959332509008</v>
+        <v>22.98480201195886</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.730298861514626</v>
+        <v>5.292972261085125</v>
       </c>
       <c r="D9">
-        <v>3.829546319298214</v>
+        <v>3.355579124847962</v>
       </c>
       <c r="E9">
-        <v>36.68239083111673</v>
+        <v>18.74361448004077</v>
       </c>
       <c r="F9">
-        <v>45.87230315275779</v>
+        <v>29.02717102200161</v>
       </c>
       <c r="G9">
-        <v>1.929625759916739</v>
+        <v>3.558934611588261</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>37.2074129180036</v>
+        <v>24.52821902330734</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.633680417016134</v>
+        <v>5.593444883520056</v>
       </c>
       <c r="D10">
-        <v>4.224311827774623</v>
+        <v>3.374865229620673</v>
       </c>
       <c r="E10">
-        <v>40.88533405904288</v>
+        <v>20.43372571101</v>
       </c>
       <c r="F10">
-        <v>50.76013361964839</v>
+        <v>30.54778217139857</v>
       </c>
       <c r="G10">
-        <v>1.904931393232144</v>
+        <v>3.551940698096475</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>41.20028594588398</v>
+        <v>25.64059188266678</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.03423870648033</v>
+        <v>5.726582748968817</v>
       </c>
       <c r="D11">
-        <v>4.405537456283446</v>
+        <v>3.384678399948782</v>
       </c>
       <c r="E11">
-        <v>42.79519200919815</v>
+        <v>21.16060891215215</v>
       </c>
       <c r="F11">
-        <v>52.94208879302389</v>
+        <v>31.22479402351989</v>
       </c>
       <c r="G11">
-        <v>1.893486820889108</v>
+        <v>3.548898584063292</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>42.98308054501091</v>
+        <v>26.13936855543927</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.18471733585876</v>
+        <v>5.776441726129736</v>
       </c>
       <c r="D12">
-        <v>4.4746883752721</v>
+        <v>3.38854379853924</v>
       </c>
       <c r="E12">
-        <v>43.52102163603266</v>
+        <v>21.42987029500259</v>
       </c>
       <c r="F12">
-        <v>53.76424026308456</v>
+        <v>31.47879319919044</v>
       </c>
       <c r="G12">
-        <v>1.889105492216179</v>
+        <v>3.547766495598578</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>43.65494712297669</v>
+        <v>26.32700660914464</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.15235728566873</v>
+        <v>5.765729185756652</v>
       </c>
       <c r="D13">
-        <v>4.459766678201806</v>
+        <v>3.387704677737932</v>
       </c>
       <c r="E13">
-        <v>43.36453006724012</v>
+        <v>21.37214596823448</v>
       </c>
       <c r="F13">
-        <v>53.58732306180865</v>
+        <v>31.42419911024617</v>
       </c>
       <c r="G13">
-        <v>1.890051523628687</v>
+        <v>3.548009428843606</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>43.51036305489844</v>
+        <v>26.28665339029794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.04664090760772</v>
+        <v>5.730696098716321</v>
       </c>
       <c r="D14">
-        <v>4.411214086742996</v>
+        <v>3.384993416870912</v>
       </c>
       <c r="E14">
-        <v>42.85483461058395</v>
+        <v>21.18288109909068</v>
       </c>
       <c r="F14">
-        <v>53.00979762996295</v>
+        <v>31.24573955303894</v>
       </c>
       <c r="G14">
-        <v>1.893127432517441</v>
+        <v>3.548805048668435</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>43.03840979985012</v>
+        <v>26.15483152136525</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.981739493657493</v>
+        <v>5.709163424527785</v>
       </c>
       <c r="D15">
-        <v>4.381552480736516</v>
+        <v>3.383352134246714</v>
       </c>
       <c r="E15">
-        <v>42.54307111291944</v>
+        <v>21.06617155094796</v>
       </c>
       <c r="F15">
-        <v>52.65557508417997</v>
+        <v>31.13611214935319</v>
       </c>
       <c r="G15">
-        <v>1.895004744479451</v>
+        <v>3.549294974859055</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>42.74895688946051</v>
+        <v>26.07392009104961</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.6073172572508</v>
+        <v>5.584668440015265</v>
       </c>
       <c r="D16">
-        <v>4.212524288427339</v>
+        <v>3.374244831144191</v>
       </c>
       <c r="E16">
-        <v>40.76070945417883</v>
+        <v>20.38538131221744</v>
       </c>
       <c r="F16">
-        <v>50.61685106615553</v>
+        <v>30.50321931614273</v>
       </c>
       <c r="G16">
-        <v>1.90567370218267</v>
+        <v>3.552142299957014</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>41.08322770608313</v>
+        <v>25.60783271292768</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.375146936129351</v>
+        <v>5.507350503590494</v>
       </c>
       <c r="D17">
-        <v>4.109433897317865</v>
+        <v>3.368924076746697</v>
       </c>
       <c r="E17">
-        <v>39.66859013412793</v>
+        <v>19.95702076391891</v>
       </c>
       <c r="F17">
-        <v>49.35671059608273</v>
+        <v>30.11100033487733</v>
       </c>
       <c r="G17">
-        <v>1.912153747652346</v>
+        <v>3.553924645731944</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>40.05377207216924</v>
+        <v>25.31990249809807</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.240609778069638</v>
+        <v>5.462547692818938</v>
       </c>
       <c r="D18">
-        <v>4.050272724799616</v>
+        <v>3.36596161706637</v>
       </c>
       <c r="E18">
-        <v>39.04002385820211</v>
+        <v>19.70668754964538</v>
       </c>
       <c r="F18">
-        <v>48.62786622554457</v>
+        <v>29.88403404494042</v>
       </c>
       <c r="G18">
-        <v>1.91586227471365</v>
+        <v>3.554962939315402</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>39.45838109790938</v>
+        <v>25.1536211536642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.194878371208604</v>
+        <v>5.44732281414514</v>
       </c>
       <c r="D19">
-        <v>4.030257169072216</v>
+        <v>3.36497539429062</v>
       </c>
       <c r="E19">
-        <v>38.82705561681232</v>
+        <v>19.6212491263944</v>
       </c>
       <c r="F19">
-        <v>48.38034760006175</v>
+        <v>29.80695963907823</v>
       </c>
       <c r="G19">
-        <v>1.917115178096991</v>
+        <v>3.555316748541758</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>39.25618692918724</v>
+        <v>25.0972120508129</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.399963341081945</v>
+        <v>5.515615806980166</v>
       </c>
       <c r="D20">
-        <v>4.120392366086987</v>
+        <v>3.369480348570722</v>
       </c>
       <c r="E20">
-        <v>39.78487173226428</v>
+        <v>20.00302915766162</v>
       </c>
       <c r="F20">
-        <v>49.49126124394913</v>
+        <v>30.15289666682768</v>
       </c>
       <c r="G20">
-        <v>1.911465974627502</v>
+        <v>3.553733553664565</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>40.16368804537986</v>
+        <v>25.35062412894841</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.07772240750557</v>
+        <v>5.741001641805984</v>
       </c>
       <c r="D21">
-        <v>4.425458217347083</v>
+        <v>3.38578572861479</v>
       </c>
       <c r="E21">
-        <v>43.00444650173412</v>
+        <v>21.23863512412189</v>
       </c>
       <c r="F21">
-        <v>53.17952509502931</v>
+        <v>31.29822367207156</v>
       </c>
       <c r="G21">
-        <v>1.892225411586935</v>
+        <v>3.548570817187844</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>43.17710716497019</v>
+        <v>26.19358587191</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.51384526539549</v>
+        <v>5.885037196549966</v>
       </c>
       <c r="D22">
-        <v>4.628093215750734</v>
+        <v>3.397312611908109</v>
       </c>
       <c r="E22">
-        <v>45.12582925276127</v>
+        <v>22.0112587194385</v>
       </c>
       <c r="F22">
-        <v>55.5673168647429</v>
+        <v>32.03284516023584</v>
       </c>
       <c r="G22">
-        <v>1.879362217597445</v>
+        <v>3.54531255446324</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>45.12872379132622</v>
+        <v>26.73721587234338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.28158916261452</v>
+        <v>5.808475767081984</v>
       </c>
       <c r="D23">
-        <v>4.51952711777452</v>
+        <v>3.39108096922618</v>
       </c>
       <c r="E23">
-        <v>43.99084269374583</v>
+        <v>21.60207667208536</v>
       </c>
       <c r="F23">
-        <v>54.29423608391666</v>
+        <v>31.6421139587905</v>
       </c>
       <c r="G23">
-        <v>1.886260817272316</v>
+        <v>3.547040999811411</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>44.08810414346204</v>
+        <v>26.44779810753269</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.388747165075619</v>
+        <v>5.511880155142912</v>
       </c>
       <c r="D24">
-        <v>4.115437730104922</v>
+        <v>3.369228557453475</v>
       </c>
       <c r="E24">
-        <v>39.73230318609084</v>
+        <v>19.98224142129509</v>
       </c>
       <c r="F24">
-        <v>49.43044465078052</v>
+        <v>30.13395990796414</v>
       </c>
       <c r="G24">
-        <v>1.911776968331439</v>
+        <v>3.55381990401785</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>40.11400618476467</v>
+        <v>25.33673718956986</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.386775026256201</v>
+        <v>5.179520665868943</v>
       </c>
       <c r="D25">
-        <v>3.684087671026471</v>
+        <v>3.34939844804807</v>
       </c>
       <c r="E25">
-        <v>35.1171538281754</v>
+        <v>18.08374502840276</v>
       </c>
       <c r="F25">
-        <v>44.02527715984873</v>
+        <v>28.45597794450965</v>
       </c>
       <c r="G25">
-        <v>1.938626859303391</v>
+        <v>3.561634903240414</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>35.69849286049848</v>
+        <v>24.11354218685661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_129/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.926126621258732</v>
+        <v>7.607196754993366</v>
       </c>
       <c r="D2">
-        <v>3.338002904462885</v>
+        <v>3.362735541186263</v>
       </c>
       <c r="E2">
-        <v>16.66695836158539</v>
+        <v>31.6224335368407</v>
       </c>
       <c r="F2">
-        <v>27.18703899061369</v>
+        <v>39.85743707408913</v>
       </c>
       <c r="G2">
-        <v>3.567828460017615</v>
+        <v>1.958292765701826</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.19951237517529</v>
+        <v>32.29238138019193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.750213261576099</v>
+        <v>7.049516854928346</v>
       </c>
       <c r="D3">
-        <v>3.332266480516632</v>
+        <v>3.139945308698433</v>
       </c>
       <c r="E3">
-        <v>15.70294774289622</v>
+        <v>29.16555642876389</v>
       </c>
       <c r="F3">
-        <v>26.31248136070441</v>
+        <v>36.89688011011592</v>
       </c>
       <c r="G3">
-        <v>3.572303459150941</v>
+        <v>1.971733351631292</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.57619591036849</v>
+        <v>29.87098972563082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.640614124971141</v>
+        <v>6.69172445519231</v>
       </c>
       <c r="D4">
-        <v>3.329717909951419</v>
+        <v>3.000031024010152</v>
       </c>
       <c r="E4">
-        <v>15.08611945890479</v>
+        <v>27.60604818074527</v>
       </c>
       <c r="F4">
-        <v>25.77068349195109</v>
+        <v>35.00734135344993</v>
       </c>
       <c r="G4">
-        <v>3.575189172148516</v>
+        <v>1.98008863487331</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.19320626190192</v>
+        <v>28.32425087503875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.595631543631719</v>
+        <v>6.541937058256457</v>
       </c>
       <c r="D5">
-        <v>3.328923112997732</v>
+        <v>2.942153528115889</v>
       </c>
       <c r="E5">
-        <v>14.82875600235974</v>
+        <v>26.95678357589031</v>
       </c>
       <c r="F5">
-        <v>25.54907308206905</v>
+        <v>34.21874364326652</v>
       </c>
       <c r="G5">
-        <v>3.576399996207762</v>
+        <v>1.983525356286841</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.0373268116054</v>
+        <v>27.67833068099531</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.588145329460033</v>
+        <v>6.516821111478633</v>
       </c>
       <c r="D6">
-        <v>3.328805825206065</v>
+        <v>2.932489062503884</v>
       </c>
       <c r="E6">
-        <v>14.78566738895243</v>
+        <v>26.84811800433369</v>
       </c>
       <c r="F6">
-        <v>25.51223691030425</v>
+        <v>34.08666054128894</v>
       </c>
       <c r="G6">
-        <v>3.576603163521204</v>
+        <v>1.984098109621508</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.01146251924012</v>
+        <v>27.57011948531187</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.64000866065126</v>
+        <v>6.689720649203807</v>
       </c>
       <c r="D7">
-        <v>3.329706205593732</v>
+        <v>2.999254044709577</v>
       </c>
       <c r="E7">
-        <v>15.08267247213794</v>
+        <v>27.59734880258203</v>
       </c>
       <c r="F7">
-        <v>25.76769758027978</v>
+        <v>34.99678198800388</v>
       </c>
       <c r="G7">
-        <v>3.57520536033398</v>
+        <v>1.980134847168667</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.19110288947422</v>
+        <v>28.31560361313817</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.86584670503044</v>
+        <v>7.418024854835653</v>
       </c>
       <c r="D8">
-        <v>3.335822339363518</v>
+        <v>3.286513536128171</v>
       </c>
       <c r="E8">
-        <v>16.33988363937718</v>
+        <v>30.78527984737994</v>
       </c>
       <c r="F8">
-        <v>26.88671595412688</v>
+        <v>38.85115571867446</v>
       </c>
       <c r="G8">
-        <v>3.569342884976451</v>
+        <v>1.962909647645761</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.98480201195886</v>
+        <v>31.46959332509005</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.292972261085125</v>
+        <v>8.730298861514507</v>
       </c>
       <c r="D9">
-        <v>3.355579124847962</v>
+        <v>3.829546319298258</v>
       </c>
       <c r="E9">
-        <v>18.74361448004077</v>
+        <v>36.68239083111667</v>
       </c>
       <c r="F9">
-        <v>29.02717102200161</v>
+        <v>45.87230315275779</v>
       </c>
       <c r="G9">
-        <v>3.558934611588261</v>
+        <v>1.929625759917007</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.52821902330734</v>
+        <v>37.2074129180036</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.593444883520056</v>
+        <v>9.633680417016075</v>
       </c>
       <c r="D10">
-        <v>3.374865229620673</v>
+        <v>4.224311827774769</v>
       </c>
       <c r="E10">
-        <v>20.43372571101</v>
+        <v>40.88533405904297</v>
       </c>
       <c r="F10">
-        <v>30.54778217139857</v>
+        <v>50.76013361964855</v>
       </c>
       <c r="G10">
-        <v>3.551940698096475</v>
+        <v>1.904931393232279</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.64059188266678</v>
+        <v>41.20028594588415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.726582748968817</v>
+        <v>10.03423870648036</v>
       </c>
       <c r="D11">
-        <v>3.384678399948782</v>
+        <v>4.405537456283435</v>
       </c>
       <c r="E11">
-        <v>21.16060891215215</v>
+        <v>42.79519200919811</v>
       </c>
       <c r="F11">
-        <v>31.22479402351989</v>
+        <v>52.94208879302392</v>
       </c>
       <c r="G11">
-        <v>3.548898584063292</v>
+        <v>1.893486820889241</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.13936855543927</v>
+        <v>42.98308054501092</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.776441726129736</v>
+        <v>10.1847173358589</v>
       </c>
       <c r="D12">
-        <v>3.38854379853924</v>
+        <v>4.474688375272017</v>
       </c>
       <c r="E12">
-        <v>21.42987029500259</v>
+        <v>43.52102163603266</v>
       </c>
       <c r="F12">
-        <v>31.47879319919044</v>
+        <v>53.76424026308448</v>
       </c>
       <c r="G12">
-        <v>3.547766495598578</v>
+        <v>1.889105492216314</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.32700660914464</v>
+        <v>43.65494712297662</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.765729185756652</v>
+        <v>10.15235728566892</v>
       </c>
       <c r="D13">
-        <v>3.387704677737932</v>
+        <v>4.459766678201969</v>
       </c>
       <c r="E13">
-        <v>21.37214596823448</v>
+        <v>43.36453006724026</v>
       </c>
       <c r="F13">
-        <v>31.42419911024617</v>
+        <v>53.58732306180877</v>
       </c>
       <c r="G13">
-        <v>3.548009428843606</v>
+        <v>1.890051523628956</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.28665339029794</v>
+        <v>43.51036305489854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.730696098716321</v>
+        <v>10.04664090760767</v>
       </c>
       <c r="D14">
-        <v>3.384993416870912</v>
+        <v>4.411214086743068</v>
       </c>
       <c r="E14">
-        <v>21.18288109909068</v>
+        <v>42.85483461058386</v>
       </c>
       <c r="F14">
-        <v>31.24573955303894</v>
+        <v>53.00979762996294</v>
       </c>
       <c r="G14">
-        <v>3.548805048668435</v>
+        <v>1.893127432517308</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.15483152136525</v>
+        <v>43.03840979985009</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.709163424527785</v>
+        <v>9.981739493657434</v>
       </c>
       <c r="D15">
-        <v>3.383352134246714</v>
+        <v>4.38155248073646</v>
       </c>
       <c r="E15">
-        <v>21.06617155094796</v>
+        <v>42.54307111291945</v>
       </c>
       <c r="F15">
-        <v>31.13611214935319</v>
+        <v>52.65557508417979</v>
       </c>
       <c r="G15">
-        <v>3.549294974859055</v>
+        <v>1.895004744479585</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.07392009104961</v>
+        <v>42.74895688946035</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.584668440015265</v>
+        <v>9.607317257250788</v>
       </c>
       <c r="D16">
-        <v>3.374244831144191</v>
+        <v>4.212524288427283</v>
       </c>
       <c r="E16">
-        <v>20.38538131221744</v>
+        <v>40.76070945417882</v>
       </c>
       <c r="F16">
-        <v>30.50321931614273</v>
+        <v>50.61685106615555</v>
       </c>
       <c r="G16">
-        <v>3.552142299957014</v>
+        <v>1.905673702182806</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.60783271292768</v>
+        <v>41.08322770608313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.507350503590494</v>
+        <v>9.375146936129468</v>
       </c>
       <c r="D17">
-        <v>3.368924076746697</v>
+        <v>4.109433897317861</v>
       </c>
       <c r="E17">
-        <v>19.95702076391891</v>
+        <v>39.66859013412792</v>
       </c>
       <c r="F17">
-        <v>30.11100033487733</v>
+        <v>49.35671059608268</v>
       </c>
       <c r="G17">
-        <v>3.553924645731944</v>
+        <v>1.912153747652211</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.31990249809807</v>
+        <v>40.05377207216916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.462547692818938</v>
+        <v>9.24060977806958</v>
       </c>
       <c r="D18">
-        <v>3.36596161706637</v>
+        <v>4.050272724799616</v>
       </c>
       <c r="E18">
-        <v>19.70668754964538</v>
+        <v>39.04002385820213</v>
       </c>
       <c r="F18">
-        <v>29.88403404494042</v>
+        <v>48.62786622554457</v>
       </c>
       <c r="G18">
-        <v>3.554962939315402</v>
+        <v>1.915862274713785</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.1536211536642</v>
+        <v>39.45838109790938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.44732281414514</v>
+        <v>9.194878371208604</v>
       </c>
       <c r="D19">
-        <v>3.36497539429062</v>
+        <v>4.030257169072166</v>
       </c>
       <c r="E19">
-        <v>19.6212491263944</v>
+        <v>38.82705561681249</v>
       </c>
       <c r="F19">
-        <v>29.80695963907823</v>
+        <v>48.38034760006196</v>
       </c>
       <c r="G19">
-        <v>3.555316748541758</v>
+        <v>1.917115178097123</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.0972120508129</v>
+        <v>39.25618692918739</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.515615806980166</v>
+        <v>9.399963341082</v>
       </c>
       <c r="D20">
-        <v>3.369480348570722</v>
+        <v>4.120392366086931</v>
       </c>
       <c r="E20">
-        <v>20.00302915766162</v>
+        <v>39.78487173226436</v>
       </c>
       <c r="F20">
-        <v>30.15289666682768</v>
+        <v>49.49126124394916</v>
       </c>
       <c r="G20">
-        <v>3.553733553664565</v>
+        <v>1.911465974627505</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.35062412894841</v>
+        <v>40.16368804537993</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.741001641805984</v>
+        <v>10.07772240750557</v>
       </c>
       <c r="D21">
-        <v>3.38578572861479</v>
+        <v>4.425458217347122</v>
       </c>
       <c r="E21">
-        <v>21.23863512412189</v>
+        <v>43.00444650173412</v>
       </c>
       <c r="F21">
-        <v>31.29822367207156</v>
+        <v>53.17952509502938</v>
       </c>
       <c r="G21">
-        <v>3.548570817187844</v>
+        <v>1.892225411586933</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.19358587191</v>
+        <v>43.17710716497027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.885037196549966</v>
+        <v>10.51384526539554</v>
       </c>
       <c r="D22">
-        <v>3.397312611908109</v>
+        <v>4.628093215750807</v>
       </c>
       <c r="E22">
-        <v>22.0112587194385</v>
+        <v>45.12582925276121</v>
       </c>
       <c r="F22">
-        <v>32.03284516023584</v>
+        <v>55.56731686474293</v>
       </c>
       <c r="G22">
-        <v>3.54531255446324</v>
+        <v>1.8793622175977</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.73721587234338</v>
+        <v>45.12872379132627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.808475767081984</v>
+        <v>10.28158916261458</v>
       </c>
       <c r="D23">
-        <v>3.39108096922618</v>
+        <v>4.519527117774479</v>
       </c>
       <c r="E23">
-        <v>21.60207667208536</v>
+        <v>43.9908426937458</v>
       </c>
       <c r="F23">
-        <v>31.6421139587905</v>
+        <v>54.29423608391685</v>
       </c>
       <c r="G23">
-        <v>3.547040999811411</v>
+        <v>1.886260817272308</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.44779810753269</v>
+        <v>44.08810414346221</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.511880155142912</v>
+        <v>9.388747165075605</v>
       </c>
       <c r="D24">
-        <v>3.369228557453475</v>
+        <v>4.115437730104973</v>
       </c>
       <c r="E24">
-        <v>19.98224142129509</v>
+        <v>39.73230318609077</v>
       </c>
       <c r="F24">
-        <v>30.13395990796414</v>
+        <v>49.43044465078054</v>
       </c>
       <c r="G24">
-        <v>3.55381990401785</v>
+        <v>1.911776968331437</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.33673718956986</v>
+        <v>40.11400618476468</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.179520665868943</v>
+        <v>8.386775026256268</v>
       </c>
       <c r="D25">
-        <v>3.34939844804807</v>
+        <v>3.684087671026524</v>
       </c>
       <c r="E25">
-        <v>18.08374502840276</v>
+        <v>35.1171538281754</v>
       </c>
       <c r="F25">
-        <v>28.45597794450965</v>
+        <v>44.0252771598487</v>
       </c>
       <c r="G25">
-        <v>3.561634903240414</v>
+        <v>1.93862685930325</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.11354218685661</v>
+        <v>35.69849286049845</v>
       </c>
     </row>
   </sheetData>
